--- a/杂文/杭州地铁线路分析.xlsx
+++ b/杂文/杭州地铁线路分析.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>线路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,20 @@
   </si>
   <si>
     <t>汽车北站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3号线：
+（下城）武林广场：10站
+（城西）古墩桥：16站
+（滨江）江陵路：17站
+（下沙）金沙湖：15站
+（萧山）钱江世纪城：15站
+（余杭）乔司（宜家）：15站
+（江干）火车东站：10站
+（萧山）萧山国际机场：25站
+（上城）城战：14站
+（江干）客运中心：13站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -335,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -354,6 +368,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -659,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -970,7 +993,85 @@
         <v>66</v>
       </c>
     </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C15" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="3:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="7"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C19" s="7"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C20" s="7"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C23" s="7"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C24" s="7"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C25" s="7"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C26" s="7"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C31" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C15:C31"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="100" verticalDpi="100" r:id="rId1"/>
